--- a/biology/Zoologie/Hyptiotes_gertschi/Hyptiotes_gertschi.xlsx
+++ b/biology/Zoologie/Hyptiotes_gertschi/Hyptiotes_gertschi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyptiotes gertschi est une espèce d'araignées aranéomorphes de la famille des Uloboridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyptiotes gertschi est une espèce d'araignées aranéomorphes de la famille des Uloboridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis en Californie, en Oregon, au Washington, en Alaska, en Idaho, au Montana, en Utah, au Colorado, au Michigan, dans l'État de New York et au Maine et au Canada en Colombie-Britannique, en Alberta, au Saskatchewan, au Manitoba, en Ontario, au Québec, au Nouveau-Brunswick, en Nouvelle-Écosse et au Terre-Neuve-et-Labrador[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis en Californie, en Oregon, au Washington, en Alaska, en Idaho, au Montana, en Utah, au Colorado, au Michigan, dans l'État de New York et au Maine et au Canada en Colombie-Britannique, en Alberta, au Saskatchewan, au Manitoba, en Ontario, au Québec, au Nouveau-Brunswick, en Nouvelle-Écosse et au Terre-Neuve-et-Labrador.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 2,1 à 2,8 mm et les femelles de 3,1 à 4,4 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 2,1 à 2,8 mm et les femelles de 3,1 à 4,4 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Willis John Gertsch[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Willis John Gertsch.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chamberlin &amp; Ivie, 1935 : Miscellaneous new American spiders. Bulletin of the University of Utah, vol. 26, no 4, p. 1-79 (texte intégral).</t>
         </is>
